--- a/results/region_genre_11_rpg.xlsx
+++ b/results/region_genre_11_rpg.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6993.6034</v>
+        <v>68475.3832</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.622</v>
       </c>
       <c r="H2" t="n">
-        <v>-50291.6984</v>
+        <v>-29659.8598</v>
       </c>
       <c r="I2" t="n">
-        <v>64278.9053</v>
+        <v>166610.6263</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-166551.1727</v>
+        <v>-234204.1783</v>
       </c>
       <c r="G3" t="n">
         <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>-223836.4746</v>
+        <v>-335126.5175</v>
       </c>
       <c r="I3" t="n">
-        <v>-109265.8708</v>
+        <v>-133281.839</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-80186.5672</v>
+        <v>-52584.9658</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>-137471.869</v>
+        <v>-154756.9794</v>
       </c>
       <c r="I4" t="n">
-        <v>-22901.2653</v>
+        <v>49587.0478</v>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-173544.7761</v>
+        <v>-302679.5615</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>-230830.078</v>
+        <v>-407467.4405</v>
       </c>
       <c r="I5" t="n">
-        <v>-116259.4743</v>
+        <v>-197891.6824</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-87180.1706</v>
+        <v>-121060.349</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001</v>
+        <v>0.0073</v>
       </c>
       <c r="H6" t="n">
-        <v>-144465.4724</v>
+        <v>-227052.3365</v>
       </c>
       <c r="I6" t="n">
-        <v>-29894.8687</v>
+        <v>-15068.3616</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>86364.60550000001</v>
+        <v>181619.2125</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
       </c>
       <c r="H7" t="n">
-        <v>29079.3037</v>
+        <v>73041.6179</v>
       </c>
       <c r="I7" t="n">
-        <v>143649.9074</v>
+        <v>290196.807</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
